--- a/cases/2021sxzxyy/评价指标体系.xlsx
+++ b/cases/2021sxzxyy/评价指标体系.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="一级指标设置" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="二级指标设置" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="三级指标设置" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="科室设置" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="183">
   <si>
     <t xml:space="preserve">数据名</t>
   </si>
@@ -453,6 +454,12 @@
     <t xml:space="preserve">低优</t>
   </si>
   <si>
+    <t xml:space="preserve">医疗服务收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗收入</t>
+  </si>
+  <si>
     <t xml:space="preserve">医疗服务收入三年复合增长率</t>
   </si>
   <si>
@@ -471,7 +478,49 @@
     <t xml:space="preserve">国家卫生健康委</t>
   </si>
   <si>
-    <t xml:space="preserve">医院承担培养医学人才的工作成效</t>
+    <t xml:space="preserve">医院感染管理专职人员数与开放床位数比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院接受其他医院进修并返回原医院独立工作人数占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">博士研究生导师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卫生技术人员数与开放床位数比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国家组织药品集中采购中标药品金额占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本药物采购品种数占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级招采平台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本药物采购金额占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级药品集中采购平台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外省住院患者占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">实际开放床位数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平均住院日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开放床位使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手术患者并发症发生率</t>
   </si>
   <si>
     <r>
@@ -482,7 +531,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">百分比（</t>
+      <t xml:space="preserve">抗菌药物使用强度</t>
     </r>
     <r>
       <rPr>
@@ -492,8 +541,151 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">%</t>
-    </r>
+      <t xml:space="preserve">DDDs</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">护士人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">护士人数与开放床位数比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">护理人员系统接受中医药知识和技能培训比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收支结余</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次均药品费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次均费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有效收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">核定床位数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员中医药科研成果转化金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">元</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员中医药科研项目经费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员科研成果转化金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员科研项目经费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员重点专科经费投入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员重点学科经费投入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点评中药处方占中药处方总数的比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点评处方占处方总数的比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">理法方药使用一致的出院患者比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电子病历应用功能水平分级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">级别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">病理医师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级室间质量评价临床检验项目参加率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级卫生健康委</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级室间质量评价临床检验项目合格率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硕士研究生导师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资产负债率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过国家室间质量评价的临床检验项目数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重点学科等级评分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重点监控药品收入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重点监控高值医用耗材收入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重症医师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门急诊下转患者人次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊中医医疗服务项目收入占门诊医疗收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊中药处方比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者中药饮片使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者使用中医非药物疗法比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者基本药物处方占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者平均预约诊疗率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者预约后平均等待时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊散装中药饮片和小包装中药饮片处方比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊次均药品费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊次均费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非医嘱离院率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻醉医师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为区卫健委重点专科</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -502,7 +694,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">）、人、篇、比值（</t>
+      <t xml:space="preserve">是</t>
     </r>
     <r>
       <rPr>
@@ -512,7 +704,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1:X</t>
+      <t xml:space="preserve">1</t>
     </r>
     <r>
       <rPr>
@@ -522,53 +714,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">医院感染管理专职人员数与开放床位数比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院接受其他医院进修并返回原医院独立工作人数占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">博士研究生导师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卫生技术人员数与开放床位数比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家组织药品集中采购中标药品金额占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本药物采购品种数占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级招采平台</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本药物采购金额占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级药品集中采购平台</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外省住院患者占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">实际开放床位数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平均住院日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开放床位使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手术患者并发症发生率</t>
+      <t xml:space="preserve">否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为区教育局或科技局重点学科或实验室</t>
   </si>
   <si>
     <r>
@@ -579,7 +739,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">抗菌药物使用强度</t>
+      <t xml:space="preserve">是</t>
     </r>
     <r>
       <rPr>
@@ -589,151 +749,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DDDs</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">DDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">护士人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">护士人数与开放床位数比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">护理人员系统接受中医药知识和技能培训比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收支结余</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次均费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有效收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">核定床位数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员中医药科研成果转化金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员中医药科研项目经费</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员科研成果转化金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员科研项目经费</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员重点专科经费投入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员重点学科经费投入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点评中药处方占中药处方总数的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点评处方占处方总数的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">理法方药使用一致的出院患者比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电子病历应用功能水平分级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">级别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">病理医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级室间质量评价临床检验项目参加率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级卫生健康委</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级室间质量评价临床检验项目合格率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硕士研究生导师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">资产负债率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通过国家室间质量评价的临床检验项目数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点学科等级评分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点监控药品收入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点监控高值医用耗材收入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重症医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门急诊下转患者人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊中医医疗服务项目收入占门诊医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊中药处方比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者中药饮片使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者使用中医非药物疗法比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者基本药物处方占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者平均预约诊疗率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者预约后平均等待时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分钟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊散装中药饮片和小包装中药饮片处方比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊次均费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非医嘱离院率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻醉医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为区卫健委重点专科</t>
-  </si>
-  <si>
+      <t xml:space="preserve">2</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -742,6 +759,31 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为国家卫健委临床重点专科</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">是</t>
     </r>
     <r>
@@ -752,7 +794,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t xml:space="preserve">5</t>
     </r>
     <r>
       <rPr>
@@ -776,7 +818,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为区教育局或科技局重点学科或实验室</t>
+    <t xml:space="preserve">是否为教育部或科技部重点学科或重点实验室</t>
   </si>
   <si>
     <r>
@@ -797,7 +839,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t xml:space="preserve">6</t>
     </r>
     <r>
       <rPr>
@@ -821,7 +863,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为国家卫健委临床重点专科</t>
+    <t xml:space="preserve">是否为市卫健委重点专科</t>
   </si>
   <si>
     <r>
@@ -842,7 +884,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5</t>
+      <t xml:space="preserve">3</t>
     </r>
     <r>
       <rPr>
@@ -866,7 +908,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为教育部或科技部重点学科或重点实验室</t>
+    <t xml:space="preserve">是否为市教育厅或科技厅重点学科或重点实验室</t>
   </si>
   <si>
     <r>
@@ -887,7 +929,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6</t>
+      <t xml:space="preserve">4</t>
     </r>
     <r>
       <rPr>
@@ -911,94 +953,61 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为市卫健委重点专科</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为市教育厅或科技厅重点学科或重点实验室</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
+    <t xml:space="preserve">选项</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心胸外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泌尿外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神经外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妇产科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儿外科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儿内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内分泌科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老年医学科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神经内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">心血管内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呼吸内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消化内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肾内科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重症医学科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">感染科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肝病科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">康复医学科</t>
   </si>
 </sst>
 </file>
@@ -1341,13 +1350,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1369,8 +1378,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2326,120 +2335,108 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>0.382</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>0.618</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="B36" s="0" t="n">
+        <v>0.382</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="B37" s="0" t="n">
+        <v>0.618</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>41</v>
@@ -2453,10 +2450,10 @@
         <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>46</v>
@@ -2465,7 +2462,7 @@
         <v>38</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>40</v>
@@ -2474,170 +2471,170 @@
         <v>40</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="H40" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>9</v>
@@ -2652,7 +2649,7 @@
         <v>38</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>49</v>
@@ -2661,12 +2658,12 @@
         <v>49</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>9</v>
@@ -2681,56 +2678,63 @@
         <v>38</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J46" s="1" t="s">
+      <c r="H47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H48" s="1" t="s">
         <v>30</v>
       </c>
@@ -2743,23 +2747,16 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E49" s="1"/>
+      <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2767,67 +2764,67 @@
         <v>30</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D51" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>3</v>
@@ -2835,50 +2832,57 @@
       <c r="E52" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>3</v>
@@ -2895,76 +2899,69 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E55" s="1"/>
+      <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>38</v>
@@ -2973,10 +2970,10 @@
         <v>44</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>40</v>
@@ -2984,7 +2981,7 @@
     </row>
     <row r="58" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>18</v>
@@ -3011,35 +3008,41 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="E59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H59" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>3</v>
@@ -3059,36 +3062,30 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
@@ -3106,7 +3103,7 @@
         <v>48</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>41</v>
@@ -3117,7 +3114,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>14</v>
@@ -3135,10 +3132,10 @@
         <v>48</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>41</v>
@@ -3146,7 +3143,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
@@ -3164,10 +3161,10 @@
         <v>48</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>41</v>
@@ -3175,7 +3172,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
@@ -3193,10 +3190,10 @@
         <v>48</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>41</v>
@@ -3204,7 +3201,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
@@ -3231,21 +3228,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>48</v>
@@ -3262,7 +3259,7 @@
     </row>
     <row r="68" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>9</v>
@@ -3283,7 +3280,7 @@
         <v>49</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>41</v>
@@ -3291,13 +3288,13 @@
     </row>
     <row r="69" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>46</v>
@@ -3312,47 +3309,47 @@
         <v>49</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>1</v>
@@ -3361,13 +3358,13 @@
         <v>46</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>40</v>
@@ -3378,10 +3375,10 @@
     </row>
     <row r="72" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>1</v>
@@ -3393,21 +3390,21 @@
         <v>38</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
@@ -3434,79 +3431,79 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="D75" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H75" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>40</v>
@@ -3515,67 +3512,67 @@
         <v>40</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="D78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>9</v>
@@ -3593,10 +3590,10 @@
         <v>48</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>49</v>
@@ -3604,39 +3601,39 @@
     </row>
     <row r="80" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>1</v>
@@ -3645,45 +3642,45 @@
         <v>46</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>41</v>
@@ -3691,10 +3688,10 @@
     </row>
     <row r="83" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>3</v>
@@ -3706,7 +3703,7 @@
         <v>38</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>40</v>
@@ -3720,7 +3717,7 @@
     </row>
     <row r="84" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
@@ -3749,7 +3746,7 @@
     </row>
     <row r="85" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>7</v>
@@ -3778,10 +3775,10 @@
     </row>
     <row r="86" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>3</v>
@@ -3796,10 +3793,10 @@
         <v>48</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>41</v>
@@ -3807,13 +3804,13 @@
     </row>
     <row r="87" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>46</v>
@@ -3834,9 +3831,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>10</v>
@@ -3845,10 +3842,10 @@
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>48</v>
@@ -3863,30 +3860,30 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>41</v>
@@ -3894,28 +3891,28 @@
     </row>
     <row r="90" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>3</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>41</v>
@@ -3923,7 +3920,7 @@
     </row>
     <row r="91" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>18</v>
@@ -3950,90 +3947,96 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D92" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="D93" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H93" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>16</v>
@@ -4053,10 +4056,10 @@
     </row>
     <row r="96" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>16</v>
@@ -4076,10 +4079,10 @@
     </row>
     <row r="97" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>16</v>
@@ -4099,10 +4102,10 @@
     </row>
     <row r="98" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>16</v>
@@ -4122,10 +4125,10 @@
     </row>
     <row r="99" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>16</v>
@@ -4143,7 +4146,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4154,4 +4179,184 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>